--- a/data/trans_bre/P17G_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P17G_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.044330822023776</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-2.990524562199093</v>
+        <v>-2.990524562199082</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01322751501571341</v>
@@ -649,7 +649,7 @@
         <v>0.01076663245197134</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.03074780671700892</v>
+        <v>-0.03074780671700881</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.7734634295178</v>
+        <v>-1.5765178526674</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3007075264888895</v>
+        <v>0.4252477102193754</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.210598798152837</v>
+        <v>-1.264507159502828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.001940001315406</v>
+        <v>-7.084100183515439</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.01776722232913379</v>
+        <v>-0.0159738417538015</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003137386844701556</v>
+        <v>0.004335515807393468</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.01226346596524437</v>
+        <v>-0.01282928797817958</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.07102450563380609</v>
+        <v>-0.07272879461858386</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.234284413910738</v>
+        <v>5.77345613204768</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.70697988313313</v>
+        <v>5.61195080866121</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.118193495884758</v>
+        <v>4.246027845865906</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.222946362275721</v>
+        <v>1.886376700693204</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.06772560501956487</v>
+        <v>0.06299677986767434</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06121666910856761</v>
+        <v>0.05950728502118869</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04352333353704303</v>
+        <v>0.04488124556118683</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.02355476693907843</v>
+        <v>0.01971657887040044</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.1303367643845421</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.98446921003571</v>
+        <v>-0.9844692100357211</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01363936496520379</v>
@@ -749,7 +749,7 @@
         <v>-0.001390716120456467</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.01047583165762964</v>
+        <v>-0.01047583165762975</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.054578213263497</v>
+        <v>-2.673021456981735</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.526063865718978</v>
+        <v>-2.166707112115441</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.707226917940204</v>
+        <v>-4.198888386775197</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.101435562710265</v>
+        <v>-5.100164096152904</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03174412070279722</v>
+        <v>-0.02782867120204611</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02616043137623157</v>
+        <v>-0.02244187008065584</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04865117789331415</v>
+        <v>-0.0439429221497431</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05299872397701356</v>
+        <v>-0.05284629919383432</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.029283511890549</v>
+        <v>6.177572868447188</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.524515656062922</v>
+        <v>5.848666947898344</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.938714751550895</v>
+        <v>4.497305708778008</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.097227146202501</v>
+        <v>4.468687273545011</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.0668874876273846</v>
+        <v>0.06974819604709939</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06104612412674344</v>
+        <v>0.06442198921974873</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04321217381097452</v>
+        <v>0.04940366898629287</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.04419471698303352</v>
+        <v>0.04933666301194652</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.968384246891632</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.3958191409728196</v>
+        <v>-0.3958191409728418</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0382809278138737</v>
@@ -849,7 +849,7 @@
         <v>0.04508869758204844</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.004399742834873232</v>
+        <v>-0.004399742834873478</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.935103435117779</v>
+        <v>-2.425902150893271</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.88703488720118</v>
+        <v>-2.800699259034619</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.646367440836759</v>
+        <v>-1.814945152166695</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.43075487680357</v>
+        <v>-6.209399356025061</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.03277634170810193</v>
+        <v>-0.02647465590852943</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.03057483172730553</v>
+        <v>-0.02963586228041848</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.01766076076030073</v>
+        <v>-0.01928444507965083</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.05841539588606264</v>
+        <v>-0.06679524855080081</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.305395268340428</v>
+        <v>9.629209695736547</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.717889392592255</v>
+        <v>6.918538531758187</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.999802761942918</v>
+        <v>9.698016907037463</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.038327266121237</v>
+        <v>6.492714922018608</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1118698621073177</v>
+        <v>0.1164176239738555</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07625072741291333</v>
+        <v>0.07686951848943968</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.120038339169804</v>
+        <v>0.1144311522848779</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.07080177910544171</v>
+        <v>0.07726324449263851</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.332432347213178</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.240940158856031</v>
+        <v>2.240940158856042</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06948075867632186</v>
@@ -949,7 +949,7 @@
         <v>0.05423104004282746</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.02813148666588275</v>
+        <v>0.02813148666588289</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.722496077181583</v>
+        <v>-5.509238341311776</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.296428282558492</v>
+        <v>-5.212343571687247</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.444626759084923</v>
+        <v>-5.562025866783296</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.117124542136549</v>
+        <v>-6.201938183084143</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.07541170426764741</v>
+        <v>-0.06182526467927359</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04758194331334376</v>
+        <v>-0.05869623405084121</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.06681593073203225</v>
+        <v>-0.06457329775067419</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.06058536736360167</v>
+        <v>-0.07258210848806181</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.82043610838255</v>
+        <v>18.47729010980925</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.95462482911837</v>
+        <v>15.62279232436198</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.70165776450174</v>
+        <v>16.24054831554048</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.00672478880436</v>
+        <v>10.06382718275076</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2431969890403933</v>
+        <v>0.2636745948032531</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2417813600097482</v>
+        <v>0.2045566796647538</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1827975922952269</v>
+        <v>0.2230206001349268</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1343233850603977</v>
+        <v>0.1370601185538787</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.525238959364295</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6102405091224616</v>
+        <v>0.6102405091224727</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03255493430477188</v>
@@ -1049,7 +1049,7 @@
         <v>0.02765852316508035</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.0068354460079039</v>
+        <v>0.006835446007904024</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1486459672361692</v>
+        <v>0.1065136389354766</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4452768784822427</v>
+        <v>0.3598500357759435</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.07088558113157666</v>
+        <v>-0.05137743644297774</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.427516506462772</v>
+        <v>-2.541755195447158</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.001377333545880295</v>
+        <v>0.001191555597756971</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00474654043588397</v>
+        <v>0.003835040076708419</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.000705722788533332</v>
+        <v>-0.0002059219599881621</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.02645016908809641</v>
+        <v>-0.02763019417190071</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.666713294591879</v>
+        <v>5.870351504417439</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.143025277294928</v>
+        <v>4.926951982894999</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.039823140310595</v>
+        <v>5.236628606598653</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.938144079698</v>
+        <v>3.898764205341029</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.06358288917929072</v>
+        <v>0.06624654208951045</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05632181320764812</v>
+        <v>0.05397350519597492</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05627981785623881</v>
+        <v>0.05863990200990689</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.04550338635544833</v>
+        <v>0.04469954439020887</v>
       </c>
     </row>
     <row r="19">
